--- a/data/trans_dic/P1001-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0678282786714972</v>
+        <v>0.07075622419838294</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06975922332193991</v>
+        <v>0.06861215823554144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1225811062198701</v>
+        <v>0.123133075616259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01067406233007623</v>
+        <v>0.009931429526133535</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08543487372900854</v>
+        <v>0.08472167446112397</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1661737154161914</v>
+        <v>0.1638625467773106</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1962542539307387</v>
+        <v>0.2049503366752199</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02292633537467658</v>
+        <v>0.02266812162294953</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08633729608239148</v>
+        <v>0.0855269984350273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.127529168389554</v>
+        <v>0.1283514397746601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1789411783139783</v>
+        <v>0.1762827361486997</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0198195515719704</v>
+        <v>0.01932806640539731</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1437795245665673</v>
+        <v>0.1433589669440631</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1447527837850919</v>
+        <v>0.139528714657816</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2145607724223597</v>
+        <v>0.2074110884671491</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04265923945896861</v>
+        <v>0.04159881607939524</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1675195062886315</v>
+        <v>0.1654477179324689</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2706123263607605</v>
+        <v>0.2698973677521986</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.303304916925302</v>
+        <v>0.3068003156946977</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05563447393314404</v>
+        <v>0.05319383661107416</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1426839075166535</v>
+        <v>0.1428301559304256</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1899268058614117</v>
+        <v>0.1898487528606947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2483773094217363</v>
+        <v>0.2459134865052232</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04220835348861626</v>
+        <v>0.04123358444258065</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05948045653557164</v>
+        <v>0.05779833885590841</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05732627936388259</v>
+        <v>0.05691135417139143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0164391796547698</v>
+        <v>0.01627631878648726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05402386094601561</v>
+        <v>0.0522791138579573</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1229782062540701</v>
+        <v>0.1197230259564618</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1204636439560511</v>
+        <v>0.1207713086948999</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0697309243659887</v>
+        <v>0.07017416219783797</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08856525101740491</v>
+        <v>0.08687109483384288</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09706472261436909</v>
+        <v>0.09687105326036802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09698668001560067</v>
+        <v>0.09693100712822618</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04648836921920566</v>
+        <v>0.04759728628127494</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07607548622784499</v>
+        <v>0.07682319729922124</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1108357729979982</v>
+        <v>0.1081877056408156</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1107335453208334</v>
+        <v>0.1107974277514044</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04510152127694346</v>
+        <v>0.04623530380901739</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1080369869484179</v>
+        <v>0.1085040435786299</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1876056600575272</v>
+        <v>0.1862620549040221</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1866654043653675</v>
+        <v>0.1841493710502558</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1230515963352498</v>
+        <v>0.1258625534615277</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1339331451737152</v>
+        <v>0.131379777250773</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1392732496341276</v>
+        <v>0.1393237079280092</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1382116109744771</v>
+        <v>0.1397758195831127</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07826150083663637</v>
+        <v>0.07820269007087974</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1110859439924496</v>
+        <v>0.1124960860052101</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02124899792698175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05499309019219854</v>
+        <v>0.05499309019219856</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03698770099545601</v>
@@ -957,7 +957,7 @@
         <v>0.05545829554074873</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08628614284052744</v>
+        <v>0.08628614284052746</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03055305884900267</v>
@@ -969,7 +969,7 @@
         <v>0.03881710224403759</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07156717567765765</v>
+        <v>0.07156717567765766</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009256561104038278</v>
+        <v>0.009621021212773974</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03026313136927907</v>
+        <v>0.03104961801792033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008804971435613755</v>
+        <v>0.008693498812984424</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0363148756744526</v>
+        <v>0.0354315275588074</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02125209867147785</v>
+        <v>0.02137810853178079</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07704813836115317</v>
+        <v>0.08004657655118465</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03194840915533687</v>
+        <v>0.03395382716485713</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06529757387385958</v>
+        <v>0.06305800178951072</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01849242846241872</v>
+        <v>0.0185305665594063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06016522095712044</v>
+        <v>0.06294495136336879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02583907191795397</v>
+        <v>0.02504557546080655</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05612332268439992</v>
+        <v>0.05671750000256705</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0468361139911781</v>
+        <v>0.05073103782960293</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08402039854075539</v>
+        <v>0.08032311211531178</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04235310154941972</v>
+        <v>0.04186020677686409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08270592631731646</v>
+        <v>0.08143237910080574</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06258661625217721</v>
+        <v>0.06754210124094653</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1492291073877366</v>
+        <v>0.1478793912351277</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08528343295298961</v>
+        <v>0.08467920566135424</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1123756157028713</v>
+        <v>0.1130422500672573</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04598433245632896</v>
+        <v>0.0455141004659124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1042043187517755</v>
+        <v>0.1058199448934014</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05605863888920701</v>
+        <v>0.05424432397793352</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08940626020305402</v>
+        <v>0.090908670159407</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1504471089049318</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08767684878656974</v>
+        <v>0.08767684878656973</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01391694350652685</v>
+        <v>0.01203005721793458</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03326823252590538</v>
+        <v>0.03567539363843086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06448571578290309</v>
+        <v>0.06462489116027111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03547183443952182</v>
+        <v>0.03635367086529388</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05255677209659428</v>
+        <v>0.05429806764861908</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1724055232027868</v>
+        <v>0.1739546349038224</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1682782236649198</v>
+        <v>0.1674228366949429</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08769300655430354</v>
+        <v>0.0890393453714651</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03750443073033507</v>
+        <v>0.03782124890352023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1124246981070006</v>
+        <v>0.11245267575544</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1245384112867644</v>
+        <v>0.1250512676284714</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06863814605641018</v>
+        <v>0.06886938926398259</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05013930710146263</v>
+        <v>0.04743942633346399</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08123561943133693</v>
+        <v>0.08623801619029353</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1255434190061994</v>
+        <v>0.1219370983051732</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09159097571235247</v>
+        <v>0.09148846464381519</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1055212018122297</v>
+        <v>0.1100963864262299</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2586063895807438</v>
+        <v>0.2542621351730487</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2501623636675406</v>
+        <v>0.2519671889209759</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1527199208883825</v>
+        <v>0.1521935201114464</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06949694476897027</v>
+        <v>0.07228742486035111</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.160434732960434</v>
+        <v>0.1611736680975943</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1772445839643517</v>
+        <v>0.1796557932907535</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1138199120952419</v>
+        <v>0.1102425922116767</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.07572321840434147</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08893159837274137</v>
+        <v>0.08893159837274134</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06869426953107938</v>
@@ -1241,7 +1241,7 @@
         <v>0.0613596805911988</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05988874836080497</v>
+        <v>0.05988874836080498</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03907260475894882</v>
+        <v>0.03829404304243959</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02396847235170426</v>
+        <v>0.02532000097454607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02312683217837856</v>
+        <v>0.02298900857563432</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01431678377312093</v>
+        <v>0.01369199868370757</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03945513261777366</v>
+        <v>0.04036338015457726</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1351900749325748</v>
+        <v>0.1346482354426671</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04459355728478424</v>
+        <v>0.0452038775229829</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06761981813207291</v>
+        <v>0.06783255463947788</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04874843049398433</v>
+        <v>0.04819874947541745</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08794857635463167</v>
+        <v>0.08801954835959618</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04076186137548903</v>
+        <v>0.04162155496870876</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04597196360814457</v>
+        <v>0.04661536677124244</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1056941200859816</v>
+        <v>0.1040178147892715</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08748517487373281</v>
+        <v>0.08860354263230766</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07896528961175935</v>
+        <v>0.08351528064557445</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05179732686378379</v>
+        <v>0.05084506334981771</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1166177519144354</v>
+        <v>0.1180676394288131</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2486295258596121</v>
+        <v>0.2339567832813491</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1175405090222614</v>
+        <v>0.1193815571912576</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.117235514576438</v>
+        <v>0.1162488863357024</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09482767323076405</v>
+        <v>0.09795058101523012</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.149031224470642</v>
+        <v>0.1503579173414303</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08632454808423903</v>
+        <v>0.08547880827577567</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07576149500205512</v>
+        <v>0.07599933666286579</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1398727880695303</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08271350349988471</v>
+        <v>0.08271350349988466</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02938430214060711</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003260254543174067</v>
+        <v>0.003504981736826094</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05253210145037888</v>
+        <v>0.05341150383256574</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04379593668472406</v>
+        <v>0.04621641413207724</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0362808653991052</v>
+        <v>0.03630188035695447</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02496070616412476</v>
+        <v>0.02532304037255579</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07715934097804507</v>
+        <v>0.07911344986434021</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09851489713806474</v>
+        <v>0.09811867088594815</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0601163142230245</v>
+        <v>0.06075745188109582</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01850471886020335</v>
+        <v>0.01728949273888295</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07387752166738723</v>
+        <v>0.07476843622923962</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08146641479986377</v>
+        <v>0.0786273387742841</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05465556684292673</v>
+        <v>0.05382131389194958</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0328444057055489</v>
+        <v>0.03047965524159169</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1247082377729292</v>
+        <v>0.1218977270413359</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1068514905235333</v>
+        <v>0.1106720633313455</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0806684787429264</v>
+        <v>0.08424859243294078</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07460624005549778</v>
+        <v>0.07737167955081026</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1509695687060596</v>
+        <v>0.1528228461460596</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1858558511410545</v>
+        <v>0.1894075171360771</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1081145975706905</v>
+        <v>0.1098887778228249</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04780134758102288</v>
+        <v>0.04782059795228886</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.124652081936181</v>
+        <v>0.1230512254642565</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1366182418106025</v>
+        <v>0.138003883624426</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08792459765433003</v>
+        <v>0.08655178580425202</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03975718150647078</v>
+        <v>0.03998045689264992</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03526244987968883</v>
+        <v>0.0342006438621312</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04600355892920702</v>
+        <v>0.04659844897943797</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06176410137094061</v>
+        <v>0.06135346321730666</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08360351892729991</v>
+        <v>0.08173159659849376</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0603214704094005</v>
+        <v>0.05994524902975969</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1066987045330268</v>
+        <v>0.1018038342140783</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1300581540005638</v>
+        <v>0.1297430434076632</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.065280099318139</v>
+        <v>0.06745665644420137</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05211014653475853</v>
+        <v>0.05323002191917776</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08170700805764849</v>
+        <v>0.08215228323207872</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1041461119962927</v>
+        <v>0.1039933451132243</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07943478557981398</v>
+        <v>0.07551450466284931</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07098423948334386</v>
+        <v>0.06961151719563932</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08900623271342432</v>
+        <v>0.08846573663424585</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1112393374560948</v>
+        <v>0.108943303951414</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1321947893014873</v>
+        <v>0.1297476978870858</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1032461317790897</v>
+        <v>0.1045101266513647</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1569153754979943</v>
+        <v>0.1581657250481202</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1781983287207179</v>
+        <v>0.1795124334367585</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.09637024394573056</v>
+        <v>0.09648222068718744</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08113641911573982</v>
+        <v>0.08017181485956844</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1161310280324769</v>
+        <v>0.1155290834443939</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1395829669593432</v>
+        <v>0.139065162641255</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.04085080499559054</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.05787484237233928</v>
+        <v>0.05787484237233927</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.09661540281319957</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06172025681541354</v>
+        <v>0.06422073023147802</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06817509227117799</v>
+        <v>0.06874021985329613</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02796011982429852</v>
+        <v>0.02819749477772953</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04530999862873687</v>
+        <v>0.04439854597563443</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07586915180751816</v>
+        <v>0.07755532241093657</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1354993734785115</v>
+        <v>0.1355683615889274</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06182515928932966</v>
+        <v>0.06219189263886033</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1335988370353785</v>
+        <v>0.1362319548414623</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07543238706899681</v>
+        <v>0.07541527278516805</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1107229741132702</v>
+        <v>0.1096669224525746</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04974635050984103</v>
+        <v>0.04989191050246213</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09392652461376827</v>
+        <v>0.09432208705977346</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1029253582779458</v>
+        <v>0.1055895504028962</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1152384013138685</v>
+        <v>0.1129347650764123</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05746052724761667</v>
+        <v>0.05544484212548616</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07569510816206812</v>
+        <v>0.07549079073274184</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1218207118630459</v>
+        <v>0.120688963518043</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1901170752735086</v>
+        <v>0.1899954093537241</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1005729941330961</v>
+        <v>0.10323706457713</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1757777035349633</v>
+        <v>0.1749060851831241</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.106241892809335</v>
+        <v>0.1044050811106759</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1445255121528183</v>
+        <v>0.1428342786698169</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.07483203329600518</v>
+        <v>0.07584762855406914</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1222683637562666</v>
+        <v>0.121402433388409</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.06068173036960494</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.06034418047230313</v>
+        <v>0.06034418047230312</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.09418657804059452</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05267195587884388</v>
+        <v>0.05227240151528485</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06185224740457211</v>
+        <v>0.06209904754070825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05308202963644859</v>
+        <v>0.05218621363497108</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05179837951076721</v>
+        <v>0.05271725443414551</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0846746605406602</v>
+        <v>0.08514528957696474</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1351450546101484</v>
+        <v>0.1328920882567099</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1112968044537273</v>
+        <v>0.1100852129923712</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1088412833356539</v>
+        <v>0.1092219723121166</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07135228189787658</v>
+        <v>0.07061828985087525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1017464252094645</v>
+        <v>0.10149722128998</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.08441959689155042</v>
+        <v>0.08508695632309336</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.08314243605570952</v>
+        <v>0.08331820475284615</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06912925252787379</v>
+        <v>0.0688601605854352</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08103173190313216</v>
+        <v>0.08076124227616446</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0704316135563418</v>
+        <v>0.06900440433799734</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.06911117552960751</v>
+        <v>0.06983770990662558</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.104376920821613</v>
+        <v>0.1052476433582234</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1594838828747832</v>
+        <v>0.1582282432118647</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1341653060517832</v>
+        <v>0.1346688398454618</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.126222377323017</v>
+        <v>0.1277452635284213</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.08440880002483227</v>
+        <v>0.08408111226743126</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1176697260291787</v>
+        <v>0.1170330096461511</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.09925869205533623</v>
+        <v>0.09907903462254825</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.09576551880940681</v>
+        <v>0.09619926319098088</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18518</v>
+        <v>19317</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20561</v>
+        <v>20223</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>36010</v>
+        <v>36172</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3403</v>
+        <v>3167</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22285</v>
+        <v>22099</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>47733</v>
+        <v>47069</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>56659</v>
+        <v>59170</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7246</v>
+        <v>7165</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>46091</v>
+        <v>45658</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>74220</v>
+        <v>74698</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>104227</v>
+        <v>102678</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12584</v>
+        <v>12272</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39253</v>
+        <v>39138</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42664</v>
+        <v>41124</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>63030</v>
+        <v>60929</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13602</v>
+        <v>13264</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>43695</v>
+        <v>43155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>77732</v>
+        <v>77527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>87565</v>
+        <v>88574</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17584</v>
+        <v>16812</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>76172</v>
+        <v>76250</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>110534</v>
+        <v>110489</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>144671</v>
+        <v>143236</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>26798</v>
+        <v>26179</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29328</v>
+        <v>28499</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28980</v>
+        <v>28770</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8262</v>
+        <v>8180</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28668</v>
+        <v>27742</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>61975</v>
+        <v>60334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>62968</v>
+        <v>63128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36475</v>
+        <v>36707</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>48400</v>
+        <v>47475</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>96776</v>
+        <v>96583</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>99725</v>
+        <v>99668</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>47681</v>
+        <v>48819</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>81944</v>
+        <v>82749</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>54650</v>
+        <v>53345</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55979</v>
+        <v>56011</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22667</v>
+        <v>23237</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>57330</v>
+        <v>57577</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>94544</v>
+        <v>93867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>97572</v>
+        <v>96257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64366</v>
+        <v>65837</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>73194</v>
+        <v>71798</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>138859</v>
+        <v>138909</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>142114</v>
+        <v>143723</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>80270</v>
+        <v>80209</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>119655</v>
+        <v>121174</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2951</v>
+        <v>3068</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9807</v>
+        <v>10062</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2805</v>
+        <v>2769</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11475</v>
+        <v>11196</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7128</v>
+        <v>7170</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26275</v>
+        <v>27297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10745</v>
+        <v>11419</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>23234</v>
+        <v>22437</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12099</v>
+        <v>12124</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>40014</v>
+        <v>41863</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16921</v>
+        <v>16402</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>37704</v>
+        <v>38104</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14934</v>
+        <v>16175</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27226</v>
+        <v>26028</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13492</v>
+        <v>13335</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26134</v>
+        <v>25732</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20992</v>
+        <v>22654</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50890</v>
+        <v>50430</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28682</v>
+        <v>28478</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39985</v>
+        <v>40223</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30086</v>
+        <v>29778</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>69303</v>
+        <v>70377</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>36711</v>
+        <v>35523</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>60064</v>
+        <v>61074</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4992</v>
+        <v>4315</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12442</v>
+        <v>13342</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23857</v>
+        <v>23909</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13194</v>
+        <v>13521</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19523</v>
+        <v>20169</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>67057</v>
+        <v>67660</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65171</v>
+        <v>64840</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>37003</v>
+        <v>37571</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>27383</v>
+        <v>27614</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>85773</v>
+        <v>85794</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>94306</v>
+        <v>94695</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>54492</v>
+        <v>54676</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17984</v>
+        <v>17015</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30381</v>
+        <v>32251</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>46447</v>
+        <v>45112</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34067</v>
+        <v>34028</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39196</v>
+        <v>40896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>100585</v>
+        <v>98896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>96884</v>
+        <v>97583</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>64442</v>
+        <v>64220</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>50742</v>
+        <v>52779</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>122401</v>
+        <v>122965</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>134218</v>
+        <v>136044</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>90362</v>
+        <v>87522</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7944</v>
+        <v>7785</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5096</v>
+        <v>5383</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4885</v>
+        <v>4856</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2944</v>
+        <v>2816</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>8194</v>
+        <v>8382</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>29687</v>
+        <v>29568</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9748</v>
+        <v>9881</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>15324</v>
+        <v>15372</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>20034</v>
+        <v>19809</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>38012</v>
+        <v>38043</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>17520</v>
+        <v>17889</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>19873</v>
+        <v>20151</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21488</v>
+        <v>21148</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18601</v>
+        <v>18839</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16679</v>
+        <v>17640</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10653</v>
+        <v>10457</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24218</v>
+        <v>24519</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>54597</v>
+        <v>51375</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25693</v>
+        <v>26095</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26567</v>
+        <v>26344</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>38972</v>
+        <v>40255</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>64413</v>
+        <v>64986</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>37103</v>
+        <v>36739</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>32750</v>
+        <v>32853</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>883</v>
+        <v>949</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14337</v>
+        <v>14577</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11524</v>
+        <v>12161</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9821</v>
+        <v>9827</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6943</v>
+        <v>7043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>21607</v>
+        <v>22154</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>26906</v>
+        <v>26798</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>15856</v>
+        <v>16025</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>10158</v>
+        <v>9491</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>40851</v>
+        <v>41344</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>43685</v>
+        <v>42163</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>29211</v>
+        <v>28765</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8895</v>
+        <v>8254</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>34036</v>
+        <v>33269</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>28115</v>
+        <v>29120</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21838</v>
+        <v>22807</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20751</v>
+        <v>21520</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>42276</v>
+        <v>42795</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>50760</v>
+        <v>51730</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>28515</v>
+        <v>28983</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>26241</v>
+        <v>26251</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>68927</v>
+        <v>68042</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>73260</v>
+        <v>74003</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>46992</v>
+        <v>46258</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24452</v>
+        <v>24589</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>23372</v>
+        <v>22668</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>30204</v>
+        <v>30595</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>44451</v>
+        <v>44155</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>53357</v>
+        <v>52163</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>41797</v>
+        <v>41537</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>73760</v>
+        <v>70376</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>100322</v>
+        <v>100079</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>81812</v>
+        <v>84540</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>70646</v>
+        <v>72164</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>110129</v>
+        <v>110729</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>155287</v>
+        <v>155060</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>48855</v>
+        <v>46443</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>47048</v>
+        <v>46138</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>58438</v>
+        <v>58083</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>80058</v>
+        <v>78405</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>84369</v>
+        <v>82807</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>71540</v>
+        <v>72416</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>108475</v>
+        <v>109339</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>137456</v>
+        <v>138470</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>120776</v>
+        <v>120916</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>109996</v>
+        <v>108689</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>156527</v>
+        <v>155716</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>208126</v>
+        <v>207354</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>45907</v>
+        <v>47767</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>53051</v>
+        <v>53491</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>21769</v>
+        <v>21954</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>36161</v>
+        <v>35433</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>59444</v>
+        <v>60765</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>111632</v>
+        <v>111688</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>51078</v>
+        <v>51381</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>110986</v>
+        <v>113173</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>115208</v>
+        <v>115182</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>177380</v>
+        <v>175688</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>79830</v>
+        <v>80064</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>152989</v>
+        <v>153633</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>76555</v>
+        <v>78537</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>89674</v>
+        <v>87881</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>44738</v>
+        <v>43168</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>60410</v>
+        <v>60247</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>95448</v>
+        <v>94561</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>156629</v>
+        <v>156528</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>83090</v>
+        <v>85291</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>146025</v>
+        <v>145301</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>162264</v>
+        <v>159459</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>231532</v>
+        <v>228823</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>120087</v>
+        <v>121716</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>199152</v>
+        <v>197742</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>172582</v>
+        <v>171273</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>211831</v>
+        <v>212676</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>180179</v>
+        <v>177138</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>182929</v>
+        <v>186174</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>286132</v>
+        <v>287723</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>480618</v>
+        <v>472605</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>394496</v>
+        <v>390202</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>406283</v>
+        <v>407704</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>474902</v>
+        <v>470017</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>710302</v>
+        <v>708562</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>585778</v>
+        <v>590409</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>603977</v>
+        <v>605254</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>226505</v>
+        <v>225623</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>277517</v>
+        <v>276590</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>239070</v>
+        <v>234225</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>244070</v>
+        <v>246636</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>352710</v>
+        <v>355653</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>567174</v>
+        <v>562709</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>475555</v>
+        <v>477339</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>471164</v>
+        <v>476848</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>561803</v>
+        <v>559622</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>821464</v>
+        <v>817019</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>688745</v>
+        <v>687499</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>695676</v>
+        <v>698827</v>
       </c>
     </row>
     <row r="40">
